--- a/October'21/13.10.2021/Daily Sales Info.xlsx
+++ b/October'21/13.10.2021/Daily Sales Info.xlsx
@@ -20821,7 +20821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
